--- a/pre/fater/2/es/Преленд 7.2 Потолстела на карантине (версия 2) Fortunella ES.xlsx
+++ b/pre/fater/2/es/Преленд 7.2 Потолстела на карантине (версия 2) Fortunella ES.xlsx
@@ -60,12 +60,16 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>Y a vosotros, ¿os gustan sorpresas?</t>
+      <t xml:space="preserve">Y a vosotros, ¿os gustan </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">las </t>
+    </r>
+    <r>
+      <t>sorpresas?</t>
     </r>
   </si>
   <si>
@@ -130,12 +134,25 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>Una historia de Natalia Solís de Ciudad Real que informará a los lectores sobre cómo se puede adelgazar de forma rápida y eficaz sin seguir ninguna dieta estricta.</t>
+      <t>Una historia de Natalia Solís</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> de Ciudad Real</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <t>que informará a los lectores sobre cómo se puede adelgazar de forma rápida y eficaz sin seguir ninguna dieta estricta.</t>
     </r>
   </si>
   <si>
@@ -190,12 +207,25 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>Vamos a empezar: mi cuerpo nunca ha sido ideal, siempre tenía unos kilos de más y no pocos, mido 1,65 cm y pesaba 87 kilos. Pero no podía bajar de peso de ninguna forma, no tenía fuerza de voluntad, no tenía tiempo para ejercicios, y también me gusta comer.</t>
+      <t xml:space="preserve">Vamos a empezar: mi cuerpo nunca ha sido ideal, siempre tenía unos kilos de más y no pocos, mido 1,65 cm y pesaba 87 kilos. </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">No </t>
+    </r>
+    <r>
+      <t>podía bajar de peso de ninguna forma, no tenía fuerza de voluntad, no tenía tiempo para ejercicios, y</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>, además,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> me gusta comer.</t>
     </r>
   </si>
   <si>
@@ -210,22 +240,84 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">¡Y de repente resulta que estamos de cuarentena! Mientras estaba en casa, no me movía nada, y además empecé a experimentar con platos nuevos. Como resultado, en un mes me convertí en una gorda de verdad. ¡En un solo mes engordé 10 kg! Y al mismo tiempo llegó Juan, el hijo de mis vecinos, siempre estaba enamorada de él. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">No puede imaginar lo aterrada que estaba. Hasta antes no me hacía mucho caso, pero no sabía cómo saludarle si me veo tan fatal. Me miré en el espejo y me eché a llorar, y es verdad. </t>
+      <t>¡Y</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> de repente</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> resulta que estamos de cuarentena! Mientras estaba en casa, no me movía nada, y</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">encima, </t>
+    </r>
+    <r>
+      <t xml:space="preserve">empecé a experimentar con platos nuevos. Como resultado, en un mes me convertí en una gorda de verdad. ¡En un solo mes engordé 10 kg! Y al mismo tiempo llegó Juan, el hijo de mis vecinos, siempre estaba enamorada de él. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>podeis</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> imaginar lo aterrada que estaba. </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>Nunca</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> me hacía mucho caso, pero </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>ahora no sabia ni como saludarle por el aspecto que tenía</t>
+    </r>
+    <r>
+      <t xml:space="preserve">. Me miré en el espejo y empece a llorar, </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>os lo juro</t>
+    </r>
+    <r>
+      <t xml:space="preserve">. </t>
     </r>
   </si>
   <si>
@@ -240,12 +332,25 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Me consolé y empecé a buscar en Internet un remedio que me ayudara a adelgazar. Y en aquel momento noté que muchos fármacos para perder el peso tiene restricciones. Unos están prohibidos para los que tienen tensión alta, otros no se recomiendan a los que tienen alergia, y también hay los que tienen muchos efectos secundarios, dañan el pelo, resecan la piel etc. </t>
+      <t>Me consolé y empecé a buscar en Internet un remedio que me ayudara a adelgazar. Y en aquel momento noté que muchos fármacos para perder el peso tiene restricciones. Unos están prohibidos para los que tienen tensión alta, otros no se recomiendan a los que tienen alergia, y</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> también</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">, están </t>
+    </r>
+    <r>
+      <t xml:space="preserve">los que tienen muchos efectos secundarios, dañan el pelo, resecan la piel etc. </t>
     </r>
   </si>
   <si>
@@ -280,12 +385,25 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Empecé a leerlo, y siempre me convencía de que era el remedio que estoy buscando, por varias causas: </t>
+      <t>Empecé a leerlo</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>. Me</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> convencía de </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>ser</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> el remedio que estoy buscando, por varias causas: </t>
     </r>
   </si>
   <si>
@@ -311,11 +429,12 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>impacta al cuerpo de forma suave;</t>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>Trabja con el</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> cuerpo de forma suave;</t>
     </r>
   </si>
   <si>
@@ -370,12 +489,16 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>Hasta una pequeña revista norteamericana escribió sobre Fortunella y mencionó a mí.</t>
+      <t xml:space="preserve">Hasta una pequeña revista norteamericana escribió sobre Fortunella y </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>me mencionó</t>
+    </r>
+    <r>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -399,14 +522,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">es una instrucción detallada y precisa. Enseguida se entiende cómo calcular la dosis para su peso. Se puede adelgazar siguiendo un programa rápido (tomar más </t>
-    </r>
+    <t xml:space="preserve">es una instrucción detallada y precisa. Enseguida se entiende cómo calcular la dosis para su peso. Se puede adelgazar siguiendo un programa rápido (tomar más </t>
   </si>
   <si>
     <r>
@@ -450,12 +566,16 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">que valoré era que no hay ningún impacto negativo en el estómago. Como llevo mucho tiempo adelgazando, he probado muchos fármacos. Unos provocan diarrea, otros al revés, llevas 3 días sin poder ir al baño. </t>
+      <t xml:space="preserve">que valoré era que no hay ningún impacto negativo en el estómago. Como llevo mucho tiempo adelgazando, he probado muchos fármacos. Unos provocan diarrea, otros al revés, </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">pasas </t>
+    </r>
+    <r>
+      <t xml:space="preserve">3 días sin poder ir al baño. </t>
     </r>
   </si>
   <si>
@@ -470,12 +590,16 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">no afectaron mi estómago y sistema digestivo de ninguna forma negativa, al contrario, se normalizó todo. </t>
+      <t xml:space="preserve">no afectaron mi estómago y </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>al</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> sistema digestivo de ninguna forma negativa, al contrario, se normalizó todo. </t>
     </r>
   </si>
   <si>
@@ -490,12 +614,16 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>muy importante, tres días más tarde empecé a observar que mi peso estaba bajando.</t>
+      <t>muy importante, tres días más tarde</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> empecé a observar que mi peso estaba bajando.</t>
     </r>
   </si>
   <si>
@@ -519,24 +647,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>Una semana más tarde, al haber tomado este remedio, perdí 3,5 kilos. Al principio me asusté pensando que era demasiado, porque no es muy saludable perder de peso tan rápido. Pero luego leí en la hoja informativa que durante la primera semana se inicia una autorregulación potente del cuerpo.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">se mejora </t>
-    </r>
+    <t>Una semana más tarde, al haber tomado este remedio, perdí 3,5 kilos. Al principio me asusté pensando que era demasiado, porque no es muy saludable perder peso tan rápido. Pero luego leí en la hoja informativa que durante la primera semana se inicia una autorregulación potente del cuerpo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mejora </t>
   </si>
   <si>
     <r>
@@ -599,23 +713,20 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>tienen doble función: ayudan adelgazar al cuerpo y aportan más salud. Así mismo, no tuve ningún sentimiento de pesadez, cansancio o apatía, al contrario, tuve más energía y me convertí en una persona más activa.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Mis primeros pasos al peso correcto y cómodo </t>
+    <t>tienen doble función: ayudan adelgazar al cuerpo y aportan más salud. Así mismo, no tuve ningún sentimiento de pesadez, cansancio o apatía, al contrario, tuve más energía y me convertí en una persona más activa.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mis primeros pasos al peso </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">adecuado </t>
+    </r>
+    <r>
+      <t xml:space="preserve">y cómodo </t>
     </r>
   </si>
   <si>
@@ -629,14 +740,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Otra cosa muy importante, casi no tuve que aplicar ninguna restricción de comida. La instrucción dice que uno no debe comer cosas grasas, dulces ni masa enriquecida, mejor dicho, restringir su consumo. Al principio, controlaba muy bien lo que comía, y luego dejé de hacerlo. </t>
-    </r>
+    <t xml:space="preserve">Otra cosa muy importante, casi no tuve que aplicar ninguna restricción de comida. La instrucción dice que uno no debe comer cosas grasas, dulces ni masa enriquecida, mejor dicho, restringir su consumo. Al principio, controlaba muy bien lo que comía, y luego dejé de hacerlo. </t>
   </si>
   <si>
     <r>
@@ -660,12 +764,25 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">funcionan, hasta si la alimentación sigue siendo la misma. Y otra cosa muy importante: se puede tomar este fármaco con alcohol. No tiene contraindicaciones para ningún producto. Es decir, uno no debe restringir nada. </t>
+      <t xml:space="preserve">funcionan, hasta si la alimentación sigue siendo la misma. Y otra cosa muy importante: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>Este</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> fármaco </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>se puede ingerir y tomar</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> alcohol. No tiene contraindicaciones para ningún producto. Es decir, uno no debe restringir nada. </t>
     </r>
   </si>
   <si>
@@ -690,12 +807,43 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Así, empecé a adelgazar, pero, como no practico nada de deporte, estaba muy preocupada por mi piel, pensaba que se secaría y perdería la elasticidad. Observaba el estado de mi piel todos los días, pero el peso se quitaba, y la piel seguía igual de firma como antes. ¿En qué radica el secreto? Volví a leer las instrucciones y el contenido del fármaco. Resulta que las gotas Fortunella tienen varios microelementos, aminoácidos y vitaminas en proporción correcta. Y resulta que, por una parte, uno adelgaza, y, por otra parte, todo este contenido alimenticio de cada cápsula mantiene tu cuerpo en tono perfecto. ¡Es muy importante, sobre todo para chicas! </t>
+      <t xml:space="preserve">Así, empecé a adelgazar, pero, como no practico nada de deporte, estaba muy preocupada por mi piel, pensaba que se secaría y perdería la elasticidad. Observaba el estado de mi piel todos los días, el peso se iba, y la piel seguía igual de firma como antes. ¿En qué radica el secreto? Volví a leer las instrucciones y el contenido del fármaco. Resulta que las gotas Fortunella tienen varios microelementos, aminoácidos y vitaminas en proporción correcta. </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">Esto hace </t>
+    </r>
+    <r>
+      <t>que, por una parte, adelgaz</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>es</t>
+    </r>
+    <r>
+      <t>, y, por otra, todo este contenido alimenticio</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> de cada cápsula</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> mantiene tu cuerpo en tono perfecto. ¡Es muy importante, sobre todo para chicas! </t>
     </r>
   </si>
   <si>
@@ -730,12 +878,49 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Primera semana con  Fortunella - 6,5 kilos menos. Desapareció el agua que sobraba, desaparecieron los edemas. Segunda semana - 5 kilos menos. Empecé a respirar más ligeramente, apareció una energía extra. Tercera semana - otros 5 kilos menos. Pero durante la tercera semana reduje un poco la dosis de las gotas Fortunella. Decidí tomar el fármaco durante más tiempo, para que el peso se quitara más lentamente, pero de forma garantizada. </t>
+      <t xml:space="preserve">Primera semana con  Fortunella - 6,5 kilos menos. Desapareció el agua que sobraba </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> los edemas. Segunda semana - 5 kilos menos. Empecé a respirar </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>de forma más ligera</t>
+    </r>
+    <r>
+      <t>, apareció energía extra. Tercera semana - otros 5 kilos menos. Pero durante la tercera semana reduje</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> un poco</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> la dosis de las gotas Fortunella. Decidí tomar el fármaco durante más tiempo, para que el peso se quitara de </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>forma controlada</t>
     </r>
   </si>
   <si>
@@ -770,12 +955,34 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Y lo más interesante es que la grasa no desaparezca de forma regular al principio se quita desde los sitios más problemáticos. Es decir, el fármaco empieza a funcionar en las capas de grasa de muchos años que parecían eternas. Pero por milagro las gotas Fortunella las quitan y no queda nada. </t>
+      <t>Y lo más interesante es que la grasa no desaparezca de forma regular al principio se quita desde los sitios más problemáticos. Es decir, el fármaco empieza a funcionar en las capas de grasa de muchos años que parecían eternas. Pero por milagro</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> las gotas Fortunella</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> las quitan y no </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">dejan </t>
+    </r>
+    <r>
+      <t xml:space="preserve">nada. </t>
     </r>
   </si>
   <si>
@@ -870,22 +1077,54 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">En mi caso, las gotas Fortunella funcionaron de forma milagrosa: durante la primera semana perdí dos kilos, y durante un mes - siete. Ya llevo casi 4 meses sin tomar el fármaco, pero el peso sigue sin aumentar. Voy a repetir el curso en otoño sin falta, tengo que deshacerme de 4-5 kilos más. Estoy encantado por el resultado, recomiendo a todos mis conocidos </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>las gotas Slimatika</t>
+      <t xml:space="preserve">En mi caso, las gotas Fortunella funcionaron de forma milagrosa: durante la primera semana perdí dos kilos, y </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">a lo larego del </t>
+    </r>
+    <r>
+      <t>mes - siete. Ya llevo casi 4 meses sin tomar el fármaco, pero el peso sigue sin aumentar. Voy a repetir el curso en otoño</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> sin falta, tengo que deshacerme de 4-5 kilos más. Estoy encantado </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">con </t>
+    </r>
+    <r>
+      <t xml:space="preserve">el resultado, </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>lo</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> recomiendo a todos mis conocidos </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">las gotas </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>Fortunella</t>
     </r>
   </si>
   <si>
@@ -899,14 +1138,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>Estoy muy contenta por ti, Esteban, perfectos resultados.</t>
-    </r>
+    <t>Estoy muy contenta por ti Esteban, perfectos resultados.</t>
   </si>
   <si>
     <r>
@@ -940,12 +1172,16 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>durante tres semanas, perdí solo 1 kilo, y qué, ¿será el resultado que me habían prometido? Parece un engaño-</t>
+      <t xml:space="preserve">durante tres semanas, perdí solo 1 kilo, y </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>¿Qué</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> será del resultado que me habían prometido? Parece un engaño-</t>
     </r>
   </si>
   <si>
@@ -980,12 +1216,34 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">demostraron resultados perfectos durante las pruebas obligatorias del fármaco. También la mayoría de la gente que tomó las cápsulas Fortunella para delgazar, notaron un efecto estupendo. ¿Por qué Vd. tuvo un resultado tan bajo? Hay varias causas. Primero, otra vez compruebe si ha calculado bien la dosis. Segundo, controle Su modo de alimentación. Algunos consumidores creen que si ya han empezado a tomar las cápsulas Fortunella, ya se puede comer tres veces más. Pero no es así. Otra vez consulte las instrucciones para tomar </t>
+      <t>demostraron resultados perfectos durante las pruebas obligatorias del fármaco. También</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <t xml:space="preserve">la mayoría de la gente que tomó las cápsulas Fortunella para delgazar, notaron un efecto estupendo. ¿Por qué tuvo un resultado tan bajo? Hay varias causas. Primero, otra vez compruebe si ha calculado bien la dosis. Segundo, controle Su modo de alimentación. Algunos consumidores creen que si ya han empezado a tomar las cápsulas Fortunella, </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">pueden </t>
+    </r>
+    <r>
+      <t xml:space="preserve">comer tres veces más </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>pero</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> no es así. Otra vez consulte las instrucciones para tomar </t>
     </r>
   </si>
   <si>
@@ -1000,12 +1258,16 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">y analice Su alimentación. </t>
+      <t xml:space="preserve">y analice </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <t xml:space="preserve">u alimentación. </t>
     </r>
   </si>
   <si>
@@ -1040,12 +1302,34 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Luego dejé de hacerlo, y engordé lo mismo. ¿Qué tontería es, ahora debo tomar este fármaco toda la vida? </t>
+      <t>Luego dejé de hacerlo, y engordé lo mismo. Qué tontería</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>...</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>¿</t>
+    </r>
+    <r>
+      <t xml:space="preserve">Ahora debo tomar este fármaco </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">durante toda </t>
+    </r>
+    <r>
+      <t xml:space="preserve">la vida? </t>
     </r>
   </si>
   <si>
@@ -1100,12 +1384,25 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">por lo menos durante un mes. En este caso, el efecto se notará. Primero, tomará un curso de adelgazamiento completo. Y, segundo, Su cuerpo podrá adaptarse y ya funcionará en otro modo. Por supuesto, no tendrá que tomar el fármaco toda la vida. Pero para mejores resultados recomendamos repetir el curso 4-6 meses más tarde. </t>
+      <t>por lo menos durante un mes. En este caso, el efecto se notará. Primero, tomará un curso de adelgazamiento completo. Y, segundo, Su cuerpo podrá adaptarse y ya funcionará de otr</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>a forma</t>
+    </r>
+    <r>
+      <t>. Por supuesto, no tendrá que tomar el fármaco toda la vida</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve"> p</t>
+    </r>
+    <r>
+      <t xml:space="preserve">ero para mejores resultados recomendamos repetir el curso 4-6 meses más tarde. </t>
     </r>
   </si>
   <si>
@@ -1140,12 +1437,25 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">- Buenos días, Nicolás. Vd. hace muy bien si no se lo cree, porque el mejor modo de comprobar la eficacia de cualquier fármaco es aplicarlo. Intente tomar </t>
+      <t xml:space="preserve">- Buenos días, Nicolás. Hace muy bien </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">en no creerselo </t>
+    </r>
+    <r>
+      <t xml:space="preserve">porque el mejor modo de comprobar la eficacia de cualquier fármaco es </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>probarlo</t>
+    </r>
+    <r>
+      <t xml:space="preserve">. Intente tomar </t>
     </r>
   </si>
   <si>
@@ -1190,12 +1500,25 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">sirven hasta para los que tienen tanta pereza como yo, para los que no tienen tiempo para gimnasios y correr por la mañana. Es una opción ideal - comes una pastilla que empieza a trabajar con tu cuerpo- Un impacto perfecto en la grasa que sobra, los resultados se notan ya al tercer día. ¡El peso se va de forma ligera y sin dolores! También me gusta que no haya ningún efecto secundario - la digestión no se daña, la defecación tampoco, y tuve mucho miedo de alergias cutáneas, pero tampoco pasó eso. </t>
+      <t>sirven hasta para los que tienen tanta pereza como yo, para los que no tienen tiempo para gimnasios y correr por la</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> mañana</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <t xml:space="preserve">. Es una opción ideal - comes una pastilla que empieza a trabajar con tu cuerpo- Un impacto perfecto en la grasa que sobra, los resultados se notan ya al tercer día. ¡El peso se va de forma ligera y sin dolores! También me gusta que no haya ningún efecto secundario - la digestión no se daña, la defecación tampoco, y tuve mucho miedo de alergias cutáneas, pero tampoco pasó eso. </t>
     </r>
   </si>
   <si>
@@ -1219,14 +1542,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">sobre todo si necesitan bajar de peso de forma rápida, y tienen poco tiempo. </t>
-    </r>
+    <t xml:space="preserve">sobre todo si necesitan bajar de peso de forma rápida y tienen poco tiempo. </t>
   </si>
   <si>
     <r>
@@ -1260,12 +1576,34 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">según el mismo esquema. Empecé a bajar de peso de forma más rápida, no sé por qué, quizás porque tenía edemas. Mi hermana perdía el peso más lentamente. Durante la primera semana vigilamos muy bien el cuerpo, para no tener problemas de riñones ni de estómago. Pero todo fue bien, solo la hermana meaba con más frecuencia durante dos días. Luego se recuperó todo. ¿Qué puedo decir? Durante un mes tomamos </t>
+      <t xml:space="preserve">según el mismo esquema. Empecé a bajar de peso de forma más rápida, no sé por qué, quizás porque tenía edemas. Mi hermana perdía el peso </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>de forma</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> más lentamente. Durante la primera semana vigilamos muy bien el cuerpo, para no tener problemas de riñones ni de estómago. Pero todo fue bien, mi </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>hermana iba a hacer pis</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> con más frecuencia durante dos días. Luego se recuperó </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">del </t>
+    </r>
+    <r>
+      <t xml:space="preserve">todo. ¿Qué puedo decir? Durante un mes tomamos </t>
     </r>
   </si>
   <si>
@@ -1279,14 +1617,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. Perdí 14 kilos, mi hermana - casi 16, aunque yo pesaba más y durante la primera semana también bajé de peso mejor. Serán las características del cuerpo. Ahora hacemos una pausa, en un mes volveremos a repetir, el fármaco es totalmente inofensivo. </t>
-    </r>
+    <t xml:space="preserve">. Perdí 14 kilos, mi hermana - casi 16, aunque yo pesaba más y durante la primera semana también bajé de peso mejor. Serán las características del cuerpo. Ahora hacemos una pausa, en un mes volveremos a repetir, el fármaco es totalmente inofensivo. </t>
   </si>
   <si>
     <r>
@@ -1420,11 +1751,16 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>Tiene un descuento de 50% y puede pedir el artículo solo por 39 € (precio ordinario 78 €)</t>
+      <t xml:space="preserve">Tiene un descuento de 50% y puede pedir el artículo solo por 39 € (precio </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">normal </t>
+    </r>
+    <r>
+      <t>78 €)</t>
     </r>
   </si>
   <si>
@@ -1931,7 +2267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -1943,17 +2279,27 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -1975,21 +2321,36 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2231,7 +2592,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2266,7 +2627,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2296,7 +2657,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2306,12 +2667,12 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2321,7 +2682,7 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2341,7 +2702,7 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2356,7 +2717,7 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2386,7 +2747,7 @@
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2401,7 +2762,7 @@
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2426,7 +2787,7 @@
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2436,7 +2797,7 @@
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2446,7 +2807,7 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2461,12 +2822,12 @@
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2501,12 +2862,12 @@
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2516,7 +2877,7 @@
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2531,7 +2892,7 @@
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2546,7 +2907,7 @@
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2566,7 +2927,7 @@
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2586,12 +2947,12 @@
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2636,12 +2997,12 @@
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2651,7 +3012,7 @@
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2671,7 +3032,7 @@
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2691,7 +3052,7 @@
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2701,7 +3062,7 @@
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2721,7 +3082,7 @@
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2751,7 +3112,7 @@
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="3" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2771,7 +3132,7 @@
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2796,7 +3157,7 @@
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="3" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2811,7 +3172,7 @@
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="5" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2831,7 +3192,7 @@
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2841,7 +3202,7 @@
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="6" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2911,7 +3272,7 @@
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2936,2569 +3297,2569 @@
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="4"/>
+      <c r="A146" s="9"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="4"/>
+      <c r="A147" s="9"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="4"/>
+      <c r="A148" s="9"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="4"/>
+      <c r="A149" s="9"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="4"/>
+      <c r="A150" s="9"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="4"/>
+      <c r="A151" s="9"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="4"/>
+      <c r="A152" s="9"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="4"/>
+      <c r="A153" s="9"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="4"/>
+      <c r="A154" s="9"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="4"/>
+      <c r="A155" s="9"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="4"/>
+      <c r="A156" s="9"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="4"/>
+      <c r="A157" s="9"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="4"/>
+      <c r="A158" s="9"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="4"/>
+      <c r="A159" s="9"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="4"/>
+      <c r="A160" s="9"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="4"/>
+      <c r="A161" s="9"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="4"/>
+      <c r="A162" s="9"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="4"/>
+      <c r="A163" s="9"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="4"/>
+      <c r="A164" s="9"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="4"/>
+      <c r="A165" s="9"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="4"/>
+      <c r="A166" s="9"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="4"/>
+      <c r="A167" s="9"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="4"/>
+      <c r="A168" s="9"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="4"/>
+      <c r="A169" s="9"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="4"/>
+      <c r="A170" s="9"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="4"/>
+      <c r="A171" s="9"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="4"/>
+      <c r="A172" s="9"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="4"/>
+      <c r="A173" s="9"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="4"/>
+      <c r="A174" s="9"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="4"/>
+      <c r="A175" s="9"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="4"/>
+      <c r="A176" s="9"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="4"/>
+      <c r="A177" s="9"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="4"/>
+      <c r="A178" s="9"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="4"/>
+      <c r="A179" s="9"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="4"/>
+      <c r="A180" s="9"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="4"/>
+      <c r="A181" s="9"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="4"/>
+      <c r="A182" s="9"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="4"/>
+      <c r="A183" s="9"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="4"/>
+      <c r="A184" s="9"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="4"/>
+      <c r="A185" s="9"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="4"/>
+      <c r="A186" s="9"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="4"/>
+      <c r="A187" s="9"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="4"/>
+      <c r="A188" s="9"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="4"/>
+      <c r="A189" s="9"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="4"/>
+      <c r="A190" s="9"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="4"/>
+      <c r="A191" s="9"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="4"/>
+      <c r="A192" s="9"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="4"/>
+      <c r="A193" s="9"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="4"/>
+      <c r="A194" s="9"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="4"/>
+      <c r="A195" s="9"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="4"/>
+      <c r="A196" s="9"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="4"/>
+      <c r="A197" s="9"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="4"/>
+      <c r="A198" s="9"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="4"/>
+      <c r="A199" s="9"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="4"/>
+      <c r="A200" s="9"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="4"/>
+      <c r="A201" s="9"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="4"/>
+      <c r="A202" s="9"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="4"/>
+      <c r="A203" s="9"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="4"/>
+      <c r="A204" s="9"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="4"/>
+      <c r="A205" s="9"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="4"/>
+      <c r="A206" s="9"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="4"/>
+      <c r="A207" s="9"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="4"/>
+      <c r="A208" s="9"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="4"/>
+      <c r="A209" s="9"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="4"/>
+      <c r="A210" s="9"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="4"/>
+      <c r="A211" s="9"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="4"/>
+      <c r="A212" s="9"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="4"/>
+      <c r="A213" s="9"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="4"/>
+      <c r="A214" s="9"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="4"/>
+      <c r="A215" s="9"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="4"/>
+      <c r="A216" s="9"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="4"/>
+      <c r="A217" s="9"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="4"/>
+      <c r="A218" s="9"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="4"/>
+      <c r="A219" s="9"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="4"/>
+      <c r="A220" s="9"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="4"/>
+      <c r="A221" s="9"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="4"/>
+      <c r="A222" s="9"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="4"/>
+      <c r="A223" s="9"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="4"/>
+      <c r="A224" s="9"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="4"/>
+      <c r="A225" s="9"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="4"/>
+      <c r="A226" s="9"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="4"/>
+      <c r="A227" s="9"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="4"/>
+      <c r="A228" s="9"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="4"/>
+      <c r="A229" s="9"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="4"/>
+      <c r="A230" s="9"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="4"/>
+      <c r="A231" s="9"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="4"/>
+      <c r="A232" s="9"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="4"/>
+      <c r="A233" s="9"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="4"/>
+      <c r="A234" s="9"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="4"/>
+      <c r="A235" s="9"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="4"/>
+      <c r="A236" s="9"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="4"/>
+      <c r="A237" s="9"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="4"/>
+      <c r="A238" s="9"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="4"/>
+      <c r="A239" s="9"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="4"/>
+      <c r="A240" s="9"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="4"/>
+      <c r="A241" s="9"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="4"/>
+      <c r="A242" s="9"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="4"/>
+      <c r="A243" s="9"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="4"/>
+      <c r="A244" s="9"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="4"/>
+      <c r="A245" s="9"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="4"/>
+      <c r="A246" s="9"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="4"/>
+      <c r="A247" s="9"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="4"/>
+      <c r="A248" s="9"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="4"/>
+      <c r="A249" s="9"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="4"/>
+      <c r="A250" s="9"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="4"/>
+      <c r="A251" s="9"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="4"/>
+      <c r="A252" s="9"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="4"/>
+      <c r="A253" s="9"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="4"/>
+      <c r="A254" s="9"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="4"/>
+      <c r="A255" s="9"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="4"/>
+      <c r="A256" s="9"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="4"/>
+      <c r="A257" s="9"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="4"/>
+      <c r="A258" s="9"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="4"/>
+      <c r="A259" s="9"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="4"/>
+      <c r="A260" s="9"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="4"/>
+      <c r="A261" s="9"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="4"/>
+      <c r="A262" s="9"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="4"/>
+      <c r="A263" s="9"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="4"/>
+      <c r="A264" s="9"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="4"/>
+      <c r="A265" s="9"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="4"/>
+      <c r="A266" s="9"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="4"/>
+      <c r="A267" s="9"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="4"/>
+      <c r="A268" s="9"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="4"/>
+      <c r="A269" s="9"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="4"/>
+      <c r="A270" s="9"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="4"/>
+      <c r="A271" s="9"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="4"/>
+      <c r="A272" s="9"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="4"/>
+      <c r="A273" s="9"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="4"/>
+      <c r="A274" s="9"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="4"/>
+      <c r="A275" s="9"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="4"/>
+      <c r="A276" s="9"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="4"/>
+      <c r="A277" s="9"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="4"/>
+      <c r="A278" s="9"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="4"/>
+      <c r="A279" s="9"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="4"/>
+      <c r="A280" s="9"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="4"/>
+      <c r="A281" s="9"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="4"/>
+      <c r="A282" s="9"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="4"/>
+      <c r="A283" s="9"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="4"/>
+      <c r="A284" s="9"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="4"/>
+      <c r="A285" s="9"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="4"/>
+      <c r="A286" s="9"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="4"/>
+      <c r="A287" s="9"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="4"/>
+      <c r="A288" s="9"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="4"/>
+      <c r="A289" s="9"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="4"/>
+      <c r="A290" s="9"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="4"/>
+      <c r="A291" s="9"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="4"/>
+      <c r="A292" s="9"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="4"/>
+      <c r="A293" s="9"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="4"/>
+      <c r="A294" s="9"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="4"/>
+      <c r="A295" s="9"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="4"/>
+      <c r="A296" s="9"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="4"/>
+      <c r="A297" s="9"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="4"/>
+      <c r="A298" s="9"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="4"/>
+      <c r="A299" s="9"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="4"/>
+      <c r="A300" s="9"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="4"/>
+      <c r="A301" s="9"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="4"/>
+      <c r="A302" s="9"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="4"/>
+      <c r="A303" s="9"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="4"/>
+      <c r="A304" s="9"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="4"/>
+      <c r="A305" s="9"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="4"/>
+      <c r="A306" s="9"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="4"/>
+      <c r="A307" s="9"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="4"/>
+      <c r="A308" s="9"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="4"/>
+      <c r="A309" s="9"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="4"/>
+      <c r="A310" s="9"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="4"/>
+      <c r="A311" s="9"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="4"/>
+      <c r="A312" s="9"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="4"/>
+      <c r="A313" s="9"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="4"/>
+      <c r="A314" s="9"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="4"/>
+      <c r="A315" s="9"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="4"/>
+      <c r="A316" s="9"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="4"/>
+      <c r="A317" s="9"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="4"/>
+      <c r="A318" s="9"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="4"/>
+      <c r="A319" s="9"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="4"/>
+      <c r="A320" s="9"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="4"/>
+      <c r="A321" s="9"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="4"/>
+      <c r="A322" s="9"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="4"/>
+      <c r="A323" s="9"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="4"/>
+      <c r="A324" s="9"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="4"/>
+      <c r="A325" s="9"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="4"/>
+      <c r="A326" s="9"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="4"/>
+      <c r="A327" s="9"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="4"/>
+      <c r="A328" s="9"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="4"/>
+      <c r="A329" s="9"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="4"/>
+      <c r="A330" s="9"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="4"/>
+      <c r="A331" s="9"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="4"/>
+      <c r="A332" s="9"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="4"/>
+      <c r="A333" s="9"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="4"/>
+      <c r="A334" s="9"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="4"/>
+      <c r="A335" s="9"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="4"/>
+      <c r="A336" s="9"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="4"/>
+      <c r="A337" s="9"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="4"/>
+      <c r="A338" s="9"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="4"/>
+      <c r="A339" s="9"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="4"/>
+      <c r="A340" s="9"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="4"/>
+      <c r="A341" s="9"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="4"/>
+      <c r="A342" s="9"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="4"/>
+      <c r="A343" s="9"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="4"/>
+      <c r="A344" s="9"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="4"/>
+      <c r="A345" s="9"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="4"/>
+      <c r="A346" s="9"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="4"/>
+      <c r="A347" s="9"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="4"/>
+      <c r="A348" s="9"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="4"/>
+      <c r="A349" s="9"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="4"/>
+      <c r="A350" s="9"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="4"/>
+      <c r="A351" s="9"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="4"/>
+      <c r="A352" s="9"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="4"/>
+      <c r="A353" s="9"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="4"/>
+      <c r="A354" s="9"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="4"/>
+      <c r="A355" s="9"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="4"/>
+      <c r="A356" s="9"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="4"/>
+      <c r="A357" s="9"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="4"/>
+      <c r="A358" s="9"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="4"/>
+      <c r="A359" s="9"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="4"/>
+      <c r="A360" s="9"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="4"/>
+      <c r="A361" s="9"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="4"/>
+      <c r="A362" s="9"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="4"/>
+      <c r="A363" s="9"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="4"/>
+      <c r="A364" s="9"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="4"/>
+      <c r="A365" s="9"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="4"/>
+      <c r="A366" s="9"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="4"/>
+      <c r="A367" s="9"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="4"/>
+      <c r="A368" s="9"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="4"/>
+      <c r="A369" s="9"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="4"/>
+      <c r="A370" s="9"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="4"/>
+      <c r="A371" s="9"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="4"/>
+      <c r="A372" s="9"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="4"/>
+      <c r="A373" s="9"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="4"/>
+      <c r="A374" s="9"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="4"/>
+      <c r="A375" s="9"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="4"/>
+      <c r="A376" s="9"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="4"/>
+      <c r="A377" s="9"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="4"/>
+      <c r="A378" s="9"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="4"/>
+      <c r="A379" s="9"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="4"/>
+      <c r="A380" s="9"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="4"/>
+      <c r="A381" s="9"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="4"/>
+      <c r="A382" s="9"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="4"/>
+      <c r="A383" s="9"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="4"/>
+      <c r="A384" s="9"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="4"/>
+      <c r="A385" s="9"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="4"/>
+      <c r="A386" s="9"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="4"/>
+      <c r="A387" s="9"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="4"/>
+      <c r="A388" s="9"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="4"/>
+      <c r="A389" s="9"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="4"/>
+      <c r="A390" s="9"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="4"/>
+      <c r="A391" s="9"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="4"/>
+      <c r="A392" s="9"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="4"/>
+      <c r="A393" s="9"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="4"/>
+      <c r="A394" s="9"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="4"/>
+      <c r="A395" s="9"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="4"/>
+      <c r="A396" s="9"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="4"/>
+      <c r="A397" s="9"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="4"/>
+      <c r="A398" s="9"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="4"/>
+      <c r="A399" s="9"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="4"/>
+      <c r="A400" s="9"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="4"/>
+      <c r="A401" s="9"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="4"/>
+      <c r="A402" s="9"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="4"/>
+      <c r="A403" s="9"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="4"/>
+      <c r="A404" s="9"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="4"/>
+      <c r="A405" s="9"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="4"/>
+      <c r="A406" s="9"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="4"/>
+      <c r="A407" s="9"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="4"/>
+      <c r="A408" s="9"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="4"/>
+      <c r="A409" s="9"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="4"/>
+      <c r="A410" s="9"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="4"/>
+      <c r="A411" s="9"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="4"/>
+      <c r="A412" s="9"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="4"/>
+      <c r="A413" s="9"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="4"/>
+      <c r="A414" s="9"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="4"/>
+      <c r="A415" s="9"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="4"/>
+      <c r="A416" s="9"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="4"/>
+      <c r="A417" s="9"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="4"/>
+      <c r="A418" s="9"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="4"/>
+      <c r="A419" s="9"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="4"/>
+      <c r="A420" s="9"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="4"/>
+      <c r="A421" s="9"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="4"/>
+      <c r="A422" s="9"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="4"/>
+      <c r="A423" s="9"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="4"/>
+      <c r="A424" s="9"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="4"/>
+      <c r="A425" s="9"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="4"/>
+      <c r="A426" s="9"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="4"/>
+      <c r="A427" s="9"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="4"/>
+      <c r="A428" s="9"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="4"/>
+      <c r="A429" s="9"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="4"/>
+      <c r="A430" s="9"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="4"/>
+      <c r="A431" s="9"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="4"/>
+      <c r="A432" s="9"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="4"/>
+      <c r="A433" s="9"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="4"/>
+      <c r="A434" s="9"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="4"/>
+      <c r="A435" s="9"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="4"/>
+      <c r="A436" s="9"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="4"/>
+      <c r="A437" s="9"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="4"/>
+      <c r="A438" s="9"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="4"/>
+      <c r="A439" s="9"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="4"/>
+      <c r="A440" s="9"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="4"/>
+      <c r="A441" s="9"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="4"/>
+      <c r="A442" s="9"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="4"/>
+      <c r="A443" s="9"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="4"/>
+      <c r="A444" s="9"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="4"/>
+      <c r="A445" s="9"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="4"/>
+      <c r="A446" s="9"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="4"/>
+      <c r="A447" s="9"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="4"/>
+      <c r="A448" s="9"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="4"/>
+      <c r="A449" s="9"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="4"/>
+      <c r="A450" s="9"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="4"/>
+      <c r="A451" s="9"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="4"/>
+      <c r="A452" s="9"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="4"/>
+      <c r="A453" s="9"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="4"/>
+      <c r="A454" s="9"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="4"/>
+      <c r="A455" s="9"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="4"/>
+      <c r="A456" s="9"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="4"/>
+      <c r="A457" s="9"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="4"/>
+      <c r="A458" s="9"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="4"/>
+      <c r="A459" s="9"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="4"/>
+      <c r="A460" s="9"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="4"/>
+      <c r="A461" s="9"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="4"/>
+      <c r="A462" s="9"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="4"/>
+      <c r="A463" s="9"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="4"/>
+      <c r="A464" s="9"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="4"/>
+      <c r="A465" s="9"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="4"/>
+      <c r="A466" s="9"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="4"/>
+      <c r="A467" s="9"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="4"/>
+      <c r="A468" s="9"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="4"/>
+      <c r="A469" s="9"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="4"/>
+      <c r="A470" s="9"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="4"/>
+      <c r="A471" s="9"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="4"/>
+      <c r="A472" s="9"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="4"/>
+      <c r="A473" s="9"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="4"/>
+      <c r="A474" s="9"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="4"/>
+      <c r="A475" s="9"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="4"/>
+      <c r="A476" s="9"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="4"/>
+      <c r="A477" s="9"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="4"/>
+      <c r="A478" s="9"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="4"/>
+      <c r="A479" s="9"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="4"/>
+      <c r="A480" s="9"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="4"/>
+      <c r="A481" s="9"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="4"/>
+      <c r="A482" s="9"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="4"/>
+      <c r="A483" s="9"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="4"/>
+      <c r="A484" s="9"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="4"/>
+      <c r="A485" s="9"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="4"/>
+      <c r="A486" s="9"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="4"/>
+      <c r="A487" s="9"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="4"/>
+      <c r="A488" s="9"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="4"/>
+      <c r="A489" s="9"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="4"/>
+      <c r="A490" s="9"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="4"/>
+      <c r="A491" s="9"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="4"/>
+      <c r="A492" s="9"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="4"/>
+      <c r="A493" s="9"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="4"/>
+      <c r="A494" s="9"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="4"/>
+      <c r="A495" s="9"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="4"/>
+      <c r="A496" s="9"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="4"/>
+      <c r="A497" s="9"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="4"/>
+      <c r="A498" s="9"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="4"/>
+      <c r="A499" s="9"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="4"/>
+      <c r="A500" s="9"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="4"/>
+      <c r="A501" s="9"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="4"/>
+      <c r="A502" s="9"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="4"/>
+      <c r="A503" s="9"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="4"/>
+      <c r="A504" s="9"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="4"/>
+      <c r="A505" s="9"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="4"/>
+      <c r="A506" s="9"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="4"/>
+      <c r="A507" s="9"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="4"/>
+      <c r="A508" s="9"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="4"/>
+      <c r="A509" s="9"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="4"/>
+      <c r="A510" s="9"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="4"/>
+      <c r="A511" s="9"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="4"/>
+      <c r="A512" s="9"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="4"/>
+      <c r="A513" s="9"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="4"/>
+      <c r="A514" s="9"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="4"/>
+      <c r="A515" s="9"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="4"/>
+      <c r="A516" s="9"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="4"/>
+      <c r="A517" s="9"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="4"/>
+      <c r="A518" s="9"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="4"/>
+      <c r="A519" s="9"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="4"/>
+      <c r="A520" s="9"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="4"/>
+      <c r="A521" s="9"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="4"/>
+      <c r="A522" s="9"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="4"/>
+      <c r="A523" s="9"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="4"/>
+      <c r="A524" s="9"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="4"/>
+      <c r="A525" s="9"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="4"/>
+      <c r="A526" s="9"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="4"/>
+      <c r="A527" s="9"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="4"/>
+      <c r="A528" s="9"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="4"/>
+      <c r="A529" s="9"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="4"/>
+      <c r="A530" s="9"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="4"/>
+      <c r="A531" s="9"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="4"/>
+      <c r="A532" s="9"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="4"/>
+      <c r="A533" s="9"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="4"/>
+      <c r="A534" s="9"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="4"/>
+      <c r="A535" s="9"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="4"/>
+      <c r="A536" s="9"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="4"/>
+      <c r="A537" s="9"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="4"/>
+      <c r="A538" s="9"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="4"/>
+      <c r="A539" s="9"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="4"/>
+      <c r="A540" s="9"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="4"/>
+      <c r="A541" s="9"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="4"/>
+      <c r="A542" s="9"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="4"/>
+      <c r="A543" s="9"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="4"/>
+      <c r="A544" s="9"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="4"/>
+      <c r="A545" s="9"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="4"/>
+      <c r="A546" s="9"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="4"/>
+      <c r="A547" s="9"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="4"/>
+      <c r="A548" s="9"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="4"/>
+      <c r="A549" s="9"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="4"/>
+      <c r="A550" s="9"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="4"/>
+      <c r="A551" s="9"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="4"/>
+      <c r="A552" s="9"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="4"/>
+      <c r="A553" s="9"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="4"/>
+      <c r="A554" s="9"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="4"/>
+      <c r="A555" s="9"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="4"/>
+      <c r="A556" s="9"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="4"/>
+      <c r="A557" s="9"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="4"/>
+      <c r="A558" s="9"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="4"/>
+      <c r="A559" s="9"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="4"/>
+      <c r="A560" s="9"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="4"/>
+      <c r="A561" s="9"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="4"/>
+      <c r="A562" s="9"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="4"/>
+      <c r="A563" s="9"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="4"/>
+      <c r="A564" s="9"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="4"/>
+      <c r="A565" s="9"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="4"/>
+      <c r="A566" s="9"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="4"/>
+      <c r="A567" s="9"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="4"/>
+      <c r="A568" s="9"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="4"/>
+      <c r="A569" s="9"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="4"/>
+      <c r="A570" s="9"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="4"/>
+      <c r="A571" s="9"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="4"/>
+      <c r="A572" s="9"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="4"/>
+      <c r="A573" s="9"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="4"/>
+      <c r="A574" s="9"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="4"/>
+      <c r="A575" s="9"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="4"/>
+      <c r="A576" s="9"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="4"/>
+      <c r="A577" s="9"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="4"/>
+      <c r="A578" s="9"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="4"/>
+      <c r="A579" s="9"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="4"/>
+      <c r="A580" s="9"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="4"/>
+      <c r="A581" s="9"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="4"/>
+      <c r="A582" s="9"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="4"/>
+      <c r="A583" s="9"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="4"/>
+      <c r="A584" s="9"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="4"/>
+      <c r="A585" s="9"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="4"/>
+      <c r="A586" s="9"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="4"/>
+      <c r="A587" s="9"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="4"/>
+      <c r="A588" s="9"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="4"/>
+      <c r="A589" s="9"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="4"/>
+      <c r="A590" s="9"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="4"/>
+      <c r="A591" s="9"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="4"/>
+      <c r="A592" s="9"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="4"/>
+      <c r="A593" s="9"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="4"/>
+      <c r="A594" s="9"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="4"/>
+      <c r="A595" s="9"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="4"/>
+      <c r="A596" s="9"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="4"/>
+      <c r="A597" s="9"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="4"/>
+      <c r="A598" s="9"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="4"/>
+      <c r="A599" s="9"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="4"/>
+      <c r="A600" s="9"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="4"/>
+      <c r="A601" s="9"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="4"/>
+      <c r="A602" s="9"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="4"/>
+      <c r="A603" s="9"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="4"/>
+      <c r="A604" s="9"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="4"/>
+      <c r="A605" s="9"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="4"/>
+      <c r="A606" s="9"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="4"/>
+      <c r="A607" s="9"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="4"/>
+      <c r="A608" s="9"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="4"/>
+      <c r="A609" s="9"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="4"/>
+      <c r="A610" s="9"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="4"/>
+      <c r="A611" s="9"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="4"/>
+      <c r="A612" s="9"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="4"/>
+      <c r="A613" s="9"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="4"/>
+      <c r="A614" s="9"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="4"/>
+      <c r="A615" s="9"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="4"/>
+      <c r="A616" s="9"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="4"/>
+      <c r="A617" s="9"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="4"/>
+      <c r="A618" s="9"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="4"/>
+      <c r="A619" s="9"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="4"/>
+      <c r="A620" s="9"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="4"/>
+      <c r="A621" s="9"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="4"/>
+      <c r="A622" s="9"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="4"/>
+      <c r="A623" s="9"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="4"/>
+      <c r="A624" s="9"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="4"/>
+      <c r="A625" s="9"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="4"/>
+      <c r="A626" s="9"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="4"/>
+      <c r="A627" s="9"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="4"/>
+      <c r="A628" s="9"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="4"/>
+      <c r="A629" s="9"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="4"/>
+      <c r="A630" s="9"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="4"/>
+      <c r="A631" s="9"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="4"/>
+      <c r="A632" s="9"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="4"/>
+      <c r="A633" s="9"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="4"/>
+      <c r="A634" s="9"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="4"/>
+      <c r="A635" s="9"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="4"/>
+      <c r="A636" s="9"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="4"/>
+      <c r="A637" s="9"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="4"/>
+      <c r="A638" s="9"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="4"/>
+      <c r="A639" s="9"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="4"/>
+      <c r="A640" s="9"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="4"/>
+      <c r="A641" s="9"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="4"/>
+      <c r="A642" s="9"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="4"/>
+      <c r="A643" s="9"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="4"/>
+      <c r="A644" s="9"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="4"/>
+      <c r="A645" s="9"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="4"/>
+      <c r="A646" s="9"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="4"/>
+      <c r="A647" s="9"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="4"/>
+      <c r="A648" s="9"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="4"/>
+      <c r="A649" s="9"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="4"/>
+      <c r="A650" s="9"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="4"/>
+      <c r="A651" s="9"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="4"/>
+      <c r="A652" s="9"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="4"/>
+      <c r="A653" s="9"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="4"/>
+      <c r="A654" s="9"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="4"/>
+      <c r="A655" s="9"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="4"/>
+      <c r="A656" s="9"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="4"/>
+      <c r="A657" s="9"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="4"/>
+      <c r="A658" s="9"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="4"/>
+      <c r="A659" s="9"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="4"/>
+      <c r="A660" s="9"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="4"/>
+      <c r="A661" s="9"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="4"/>
+      <c r="A662" s="9"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="4"/>
+      <c r="A663" s="9"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="4"/>
+      <c r="A664" s="9"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="4"/>
+      <c r="A665" s="9"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="4"/>
+      <c r="A666" s="9"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="4"/>
+      <c r="A667" s="9"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="4"/>
+      <c r="A668" s="9"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="4"/>
+      <c r="A669" s="9"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="4"/>
+      <c r="A670" s="9"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="4"/>
+      <c r="A671" s="9"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="4"/>
+      <c r="A672" s="9"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="4"/>
+      <c r="A673" s="9"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="4"/>
+      <c r="A674" s="9"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="4"/>
+      <c r="A675" s="9"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="4"/>
+      <c r="A676" s="9"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="4"/>
+      <c r="A677" s="9"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="4"/>
+      <c r="A678" s="9"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="4"/>
+      <c r="A679" s="9"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="4"/>
+      <c r="A680" s="9"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="4"/>
+      <c r="A681" s="9"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="4"/>
+      <c r="A682" s="9"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="4"/>
+      <c r="A683" s="9"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="4"/>
+      <c r="A684" s="9"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="4"/>
+      <c r="A685" s="9"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="4"/>
+      <c r="A686" s="9"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="4"/>
+      <c r="A687" s="9"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="4"/>
+      <c r="A688" s="9"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="4"/>
+      <c r="A689" s="9"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="4"/>
+      <c r="A690" s="9"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="4"/>
+      <c r="A691" s="9"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="4"/>
+      <c r="A692" s="9"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="4"/>
+      <c r="A693" s="9"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="4"/>
+      <c r="A694" s="9"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="4"/>
+      <c r="A695" s="9"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="4"/>
+      <c r="A696" s="9"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="4"/>
+      <c r="A697" s="9"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="4"/>
+      <c r="A698" s="9"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="4"/>
+      <c r="A699" s="9"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="4"/>
+      <c r="A700" s="9"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="4"/>
+      <c r="A701" s="9"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="4"/>
+      <c r="A702" s="9"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="4"/>
+      <c r="A703" s="9"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="4"/>
+      <c r="A704" s="9"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="4"/>
+      <c r="A705" s="9"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="4"/>
+      <c r="A706" s="9"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="4"/>
+      <c r="A707" s="9"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="4"/>
+      <c r="A708" s="9"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="4"/>
+      <c r="A709" s="9"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="4"/>
+      <c r="A710" s="9"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="4"/>
+      <c r="A711" s="9"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="4"/>
+      <c r="A712" s="9"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="4"/>
+      <c r="A713" s="9"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="4"/>
+      <c r="A714" s="9"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="4"/>
+      <c r="A715" s="9"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="4"/>
+      <c r="A716" s="9"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="4"/>
+      <c r="A717" s="9"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="4"/>
+      <c r="A718" s="9"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="4"/>
+      <c r="A719" s="9"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="4"/>
+      <c r="A720" s="9"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="4"/>
+      <c r="A721" s="9"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="4"/>
+      <c r="A722" s="9"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="4"/>
+      <c r="A723" s="9"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="4"/>
+      <c r="A724" s="9"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="4"/>
+      <c r="A725" s="9"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="4"/>
+      <c r="A726" s="9"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="4"/>
+      <c r="A727" s="9"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="4"/>
+      <c r="A728" s="9"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="4"/>
+      <c r="A729" s="9"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="4"/>
+      <c r="A730" s="9"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="4"/>
+      <c r="A731" s="9"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="4"/>
+      <c r="A732" s="9"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="4"/>
+      <c r="A733" s="9"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="4"/>
+      <c r="A734" s="9"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="4"/>
+      <c r="A735" s="9"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="4"/>
+      <c r="A736" s="9"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="4"/>
+      <c r="A737" s="9"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="4"/>
+      <c r="A738" s="9"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="4"/>
+      <c r="A739" s="9"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="4"/>
+      <c r="A740" s="9"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="4"/>
+      <c r="A741" s="9"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="4"/>
+      <c r="A742" s="9"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="4"/>
+      <c r="A743" s="9"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="4"/>
+      <c r="A744" s="9"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="4"/>
+      <c r="A745" s="9"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="4"/>
+      <c r="A746" s="9"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="4"/>
+      <c r="A747" s="9"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="4"/>
+      <c r="A748" s="9"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="4"/>
+      <c r="A749" s="9"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="4"/>
+      <c r="A750" s="9"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="4"/>
+      <c r="A751" s="9"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="4"/>
+      <c r="A752" s="9"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="4"/>
+      <c r="A753" s="9"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="4"/>
+      <c r="A754" s="9"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="4"/>
+      <c r="A755" s="9"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="4"/>
+      <c r="A756" s="9"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="4"/>
+      <c r="A757" s="9"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="4"/>
+      <c r="A758" s="9"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="4"/>
+      <c r="A759" s="9"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="4"/>
+      <c r="A760" s="9"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="4"/>
+      <c r="A761" s="9"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="4"/>
+      <c r="A762" s="9"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="4"/>
+      <c r="A763" s="9"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="4"/>
+      <c r="A764" s="9"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="4"/>
+      <c r="A765" s="9"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="4"/>
+      <c r="A766" s="9"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="4"/>
+      <c r="A767" s="9"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="4"/>
+      <c r="A768" s="9"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="4"/>
+      <c r="A769" s="9"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="4"/>
+      <c r="A770" s="9"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="4"/>
+      <c r="A771" s="9"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="4"/>
+      <c r="A772" s="9"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="4"/>
+      <c r="A773" s="9"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="4"/>
+      <c r="A774" s="9"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="4"/>
+      <c r="A775" s="9"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="4"/>
+      <c r="A776" s="9"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="4"/>
+      <c r="A777" s="9"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="4"/>
+      <c r="A778" s="9"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="4"/>
+      <c r="A779" s="9"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="4"/>
+      <c r="A780" s="9"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="4"/>
+      <c r="A781" s="9"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="4"/>
+      <c r="A782" s="9"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="4"/>
+      <c r="A783" s="9"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="4"/>
+      <c r="A784" s="9"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="4"/>
+      <c r="A785" s="9"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="4"/>
+      <c r="A786" s="9"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="4"/>
+      <c r="A787" s="9"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="4"/>
+      <c r="A788" s="9"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="4"/>
+      <c r="A789" s="9"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="4"/>
+      <c r="A790" s="9"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="4"/>
+      <c r="A791" s="9"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="4"/>
+      <c r="A792" s="9"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="4"/>
+      <c r="A793" s="9"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="4"/>
+      <c r="A794" s="9"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="4"/>
+      <c r="A795" s="9"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="4"/>
+      <c r="A796" s="9"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="4"/>
+      <c r="A797" s="9"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="4"/>
+      <c r="A798" s="9"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="4"/>
+      <c r="A799" s="9"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="4"/>
+      <c r="A800" s="9"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="4"/>
+      <c r="A801" s="9"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="4"/>
+      <c r="A802" s="9"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="4"/>
+      <c r="A803" s="9"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="4"/>
+      <c r="A804" s="9"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="4"/>
+      <c r="A805" s="9"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="4"/>
+      <c r="A806" s="9"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="4"/>
+      <c r="A807" s="9"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="4"/>
+      <c r="A808" s="9"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="4"/>
+      <c r="A809" s="9"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="4"/>
+      <c r="A810" s="9"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="4"/>
+      <c r="A811" s="9"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="4"/>
+      <c r="A812" s="9"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="4"/>
+      <c r="A813" s="9"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="4"/>
+      <c r="A814" s="9"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="4"/>
+      <c r="A815" s="9"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="4"/>
+      <c r="A816" s="9"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="4"/>
+      <c r="A817" s="9"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="4"/>
+      <c r="A818" s="9"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="4"/>
+      <c r="A819" s="9"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="4"/>
+      <c r="A820" s="9"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="4"/>
+      <c r="A821" s="9"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="4"/>
+      <c r="A822" s="9"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="4"/>
+      <c r="A823" s="9"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="4"/>
+      <c r="A824" s="9"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="4"/>
+      <c r="A825" s="9"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="4"/>
+      <c r="A826" s="9"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="4"/>
+      <c r="A827" s="9"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="4"/>
+      <c r="A828" s="9"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="4"/>
+      <c r="A829" s="9"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="4"/>
+      <c r="A830" s="9"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="4"/>
+      <c r="A831" s="9"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="4"/>
+      <c r="A832" s="9"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="4"/>
+      <c r="A833" s="9"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="4"/>
+      <c r="A834" s="9"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="4"/>
+      <c r="A835" s="9"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="4"/>
+      <c r="A836" s="9"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="4"/>
+      <c r="A837" s="9"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="4"/>
+      <c r="A838" s="9"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="4"/>
+      <c r="A839" s="9"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="4"/>
+      <c r="A840" s="9"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="4"/>
+      <c r="A841" s="9"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="4"/>
+      <c r="A842" s="9"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="4"/>
+      <c r="A843" s="9"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="4"/>
+      <c r="A844" s="9"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="4"/>
+      <c r="A845" s="9"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="4"/>
+      <c r="A846" s="9"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="4"/>
+      <c r="A847" s="9"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="4"/>
+      <c r="A848" s="9"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="4"/>
+      <c r="A849" s="9"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="4"/>
+      <c r="A850" s="9"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="4"/>
+      <c r="A851" s="9"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="4"/>
+      <c r="A852" s="9"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="4"/>
+      <c r="A853" s="9"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="4"/>
+      <c r="A854" s="9"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="4"/>
+      <c r="A855" s="9"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="4"/>
+      <c r="A856" s="9"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="4"/>
+      <c r="A857" s="9"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="4"/>
+      <c r="A858" s="9"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="4"/>
+      <c r="A859" s="9"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="4"/>
+      <c r="A860" s="9"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="4"/>
+      <c r="A861" s="9"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="4"/>
+      <c r="A862" s="9"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="4"/>
+      <c r="A863" s="9"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="4"/>
+      <c r="A864" s="9"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="4"/>
+      <c r="A865" s="9"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="4"/>
+      <c r="A866" s="9"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="4"/>
+      <c r="A867" s="9"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="4"/>
+      <c r="A868" s="9"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="4"/>
+      <c r="A869" s="9"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="4"/>
+      <c r="A870" s="9"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="4"/>
+      <c r="A871" s="9"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="4"/>
+      <c r="A872" s="9"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="4"/>
+      <c r="A873" s="9"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="4"/>
+      <c r="A874" s="9"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="4"/>
+      <c r="A875" s="9"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="4"/>
+      <c r="A876" s="9"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="4"/>
+      <c r="A877" s="9"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="4"/>
+      <c r="A878" s="9"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="4"/>
+      <c r="A879" s="9"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="4"/>
+      <c r="A880" s="9"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="4"/>
+      <c r="A881" s="9"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="4"/>
+      <c r="A882" s="9"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="4"/>
+      <c r="A883" s="9"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="4"/>
+      <c r="A884" s="9"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="4"/>
+      <c r="A885" s="9"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="4"/>
+      <c r="A886" s="9"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="4"/>
+      <c r="A887" s="9"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="4"/>
+      <c r="A888" s="9"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="4"/>
+      <c r="A889" s="9"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="4"/>
+      <c r="A890" s="9"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="4"/>
+      <c r="A891" s="9"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="4"/>
+      <c r="A892" s="9"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="4"/>
+      <c r="A893" s="9"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="4"/>
+      <c r="A894" s="9"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="4"/>
+      <c r="A895" s="9"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="4"/>
+      <c r="A896" s="9"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="4"/>
+      <c r="A897" s="9"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="4"/>
+      <c r="A898" s="9"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="4"/>
+      <c r="A899" s="9"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="4"/>
+      <c r="A900" s="9"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="4"/>
+      <c r="A901" s="9"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="4"/>
+      <c r="A902" s="9"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="4"/>
+      <c r="A903" s="9"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="4"/>
+      <c r="A904" s="9"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="4"/>
+      <c r="A905" s="9"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="4"/>
+      <c r="A906" s="9"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="4"/>
+      <c r="A907" s="9"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="4"/>
+      <c r="A908" s="9"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="4"/>
+      <c r="A909" s="9"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="4"/>
+      <c r="A910" s="9"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="4"/>
+      <c r="A911" s="9"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="4"/>
+      <c r="A912" s="9"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="4"/>
+      <c r="A913" s="9"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="4"/>
+      <c r="A914" s="9"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="4"/>
+      <c r="A915" s="9"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="4"/>
+      <c r="A916" s="9"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="4"/>
+      <c r="A917" s="9"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="4"/>
+      <c r="A918" s="9"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="4"/>
+      <c r="A919" s="9"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="4"/>
+      <c r="A920" s="9"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="4"/>
+      <c r="A921" s="9"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="4"/>
+      <c r="A922" s="9"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="4"/>
+      <c r="A923" s="9"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="4"/>
+      <c r="A924" s="9"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="4"/>
+      <c r="A925" s="9"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="4"/>
+      <c r="A926" s="9"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="4"/>
+      <c r="A927" s="9"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="4"/>
+      <c r="A928" s="9"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="4"/>
+      <c r="A929" s="9"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="4"/>
+      <c r="A930" s="9"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="4"/>
+      <c r="A931" s="9"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="4"/>
+      <c r="A932" s="9"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="4"/>
+      <c r="A933" s="9"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="4"/>
+      <c r="A934" s="9"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="4"/>
+      <c r="A935" s="9"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="4"/>
+      <c r="A936" s="9"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="4"/>
+      <c r="A937" s="9"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="4"/>
+      <c r="A938" s="9"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="4"/>
+      <c r="A939" s="9"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="4"/>
+      <c r="A940" s="9"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="4"/>
+      <c r="A941" s="9"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="4"/>
+      <c r="A942" s="9"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="4"/>
+      <c r="A943" s="9"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="4"/>
+      <c r="A944" s="9"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="4"/>
+      <c r="A945" s="9"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="4"/>
+      <c r="A946" s="9"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="4"/>
+      <c r="A947" s="9"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="4"/>
+      <c r="A948" s="9"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="4"/>
+      <c r="A949" s="9"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="4"/>
+      <c r="A950" s="9"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="4"/>
+      <c r="A951" s="9"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="4"/>
+      <c r="A952" s="9"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="4"/>
+      <c r="A953" s="9"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="4"/>
+      <c r="A954" s="9"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="4"/>
+      <c r="A955" s="9"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="4"/>
+      <c r="A956" s="9"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="4"/>
+      <c r="A957" s="9"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="4"/>
+      <c r="A958" s="9"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="4"/>
+      <c r="A959" s="9"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="4"/>
+      <c r="A960" s="9"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="4"/>
+      <c r="A961" s="9"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="4"/>
+      <c r="A962" s="9"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="4"/>
+      <c r="A963" s="9"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="4"/>
+      <c r="A964" s="9"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="4"/>
+      <c r="A965" s="9"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="4"/>
+      <c r="A966" s="9"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="4"/>
+      <c r="A967" s="9"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="4"/>
+      <c r="A968" s="9"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="4"/>
+      <c r="A969" s="9"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="4"/>
+      <c r="A970" s="9"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="4"/>
+      <c r="A971" s="9"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="4"/>
+      <c r="A972" s="9"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="4"/>
+      <c r="A973" s="9"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="4"/>
+      <c r="A974" s="9"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="4"/>
+      <c r="A975" s="9"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="4"/>
+      <c r="A976" s="9"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="4"/>
+      <c r="A977" s="9"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="4"/>
+      <c r="A978" s="9"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="4"/>
+      <c r="A979" s="9"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="4"/>
+      <c r="A980" s="9"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="4"/>
+      <c r="A981" s="9"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="4"/>
+      <c r="A982" s="9"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="4"/>
+      <c r="A983" s="9"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="4"/>
+      <c r="A984" s="9"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="4"/>
+      <c r="A985" s="9"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="4"/>
+      <c r="A986" s="9"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="4"/>
+      <c r="A987" s="9"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="4"/>
+      <c r="A988" s="9"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="A989" s="4"/>
+      <c r="A989" s="9"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="A990" s="4"/>
+      <c r="A990" s="9"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="A991" s="4"/>
+      <c r="A991" s="9"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="A992" s="4"/>
+      <c r="A992" s="9"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="A993" s="4"/>
+      <c r="A993" s="9"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="A994" s="4"/>
+      <c r="A994" s="9"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="A995" s="4"/>
+      <c r="A995" s="9"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="A996" s="4"/>
+      <c r="A996" s="9"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="A997" s="4"/>
+      <c r="A997" s="9"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="A998" s="4"/>
+      <c r="A998" s="9"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="A999" s="4"/>
+      <c r="A999" s="9"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="A1000" s="4"/>
+      <c r="A1000" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5513,47 +5874,47 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="10" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="10" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="10" t="s">
         <v>153</v>
       </c>
     </row>
